--- a/ConvertedEqual/Indiana_Converted.xlsx
+++ b/ConvertedEqual/Indiana_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="289">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -847,6 +847,42 @@
   <si>
     <t>9/29/2020</t>
   </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1207,7 +1243,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN221"/>
+  <dimension ref="A1:AN233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1752,7 +1788,7 @@
         <v>0.1666666667</v>
       </c>
       <c r="X7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0.1666666667</v>
@@ -1782,7 +1818,7 @@
         <v>0.1666666667</v>
       </c>
       <c r="AH7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1800,7 +1836,7 @@
         <v>0.1666666667</v>
       </c>
       <c r="AN7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -3269,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>0.08974358974615385</v>
+        <v>0.097222222225</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -3391,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>0.08974358974615385</v>
+        <v>0.097222222225</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -3513,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>0.08974358974615385</v>
+        <v>0.097222222225</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -3635,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>0.08974358974615385</v>
+        <v>0.097222222225</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -3757,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="AN24">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -3879,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -4001,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -4123,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -4245,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="29" spans="1:40">
@@ -4367,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -4489,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="AN30">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="31" spans="1:40">
@@ -4611,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="AN31">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="32" spans="1:40">
@@ -4733,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="AN32">
-        <v>0.8333333333769228</v>
+        <v>0.8194444444916664</v>
       </c>
     </row>
     <row r="33" spans="1:40">
@@ -4855,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="AN33">
-        <v>0.8333333333769228</v>
+        <v>0.8194444444916664</v>
       </c>
     </row>
     <row r="34" spans="1:40">
@@ -4977,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="AN34">
-        <v>0.8333333333769228</v>
+        <v>0.8194444444916664</v>
       </c>
     </row>
     <row r="35" spans="1:40">
@@ -5099,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="AN35">
-        <v>0.8333333333769228</v>
+        <v>0.8194444444916664</v>
       </c>
     </row>
     <row r="36" spans="1:40">
@@ -5221,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="AN36">
-        <v>0.8333333333769228</v>
+        <v>0.8194444444916664</v>
       </c>
     </row>
     <row r="37" spans="1:40">
@@ -5343,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="AN37">
-        <v>0.8333333333769228</v>
+        <v>0.8194444444916664</v>
       </c>
     </row>
     <row r="38" spans="1:40">
@@ -5465,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="AN38">
-        <v>0.8333333333769228</v>
+        <v>0.8194444444916664</v>
       </c>
     </row>
     <row r="39" spans="1:40">
@@ -5587,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="AN39">
-        <v>0.8333333333769228</v>
+        <v>0.8194444444916664</v>
       </c>
     </row>
     <row r="40" spans="1:40">
@@ -5709,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="AN40">
-        <v>0.8333333333769228</v>
+        <v>0.8194444444916664</v>
       </c>
     </row>
     <row r="41" spans="1:40">
@@ -5831,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="AN41">
-        <v>0.8333333333769228</v>
+        <v>0.8194444444916664</v>
       </c>
     </row>
     <row r="42" spans="1:40">
@@ -5953,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="AN42">
-        <v>0.8333333333769228</v>
+        <v>0.8194444444916664</v>
       </c>
     </row>
     <row r="43" spans="1:40">
@@ -6075,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="AN43">
-        <v>0.8333333333769228</v>
+        <v>0.8194444444916664</v>
       </c>
     </row>
     <row r="44" spans="1:40">
@@ -6197,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="AN44">
-        <v>0.8333333333769228</v>
+        <v>0.8194444444916664</v>
       </c>
     </row>
     <row r="45" spans="1:40">
@@ -6319,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="AN45">
-        <v>0.8333333333769228</v>
+        <v>0.8194444444916664</v>
       </c>
     </row>
     <row r="46" spans="1:40">
@@ -6441,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="AN46">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="47" spans="1:40">
@@ -6563,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="AN47">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="48" spans="1:40">
@@ -6685,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="AN48">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="49" spans="1:40">
@@ -6807,7 +6843,7 @@
         <v>1</v>
       </c>
       <c r="AN49">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="50" spans="1:40">
@@ -6929,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="AN50">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="51" spans="1:40">
@@ -7051,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="AN51">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="52" spans="1:40">
@@ -7173,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="AN52">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="53" spans="1:40">
@@ -7295,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="AN53">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="54" spans="1:40">
@@ -7417,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="AN54">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="55" spans="1:40">
@@ -7539,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="AN55">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="56" spans="1:40">
@@ -7661,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="AN56">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="57" spans="1:40">
@@ -7783,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="AN57">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="58" spans="1:40">
@@ -7905,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="AN58">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="59" spans="1:40">
@@ -8027,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="AN59">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="60" spans="1:40">
@@ -8149,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="AN60">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="61" spans="1:40">
@@ -8271,7 +8307,7 @@
         <v>1</v>
       </c>
       <c r="AN61">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="62" spans="1:40">
@@ -8393,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="AN62">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="63" spans="1:40">
@@ -8515,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="AN63">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="64" spans="1:40">
@@ -8637,7 +8673,7 @@
         <v>1</v>
       </c>
       <c r="AN64">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="65" spans="1:40">
@@ -8759,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="AN65">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="66" spans="1:40">
@@ -8881,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="AN66">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="67" spans="1:40">
@@ -9003,7 +9039,7 @@
         <v>1</v>
       </c>
       <c r="AN67">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="68" spans="1:40">
@@ -9125,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="AN68">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="69" spans="1:40">
@@ -9247,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="AN69">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="70" spans="1:40">
@@ -9369,7 +9405,7 @@
         <v>1</v>
       </c>
       <c r="AN70">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="71" spans="1:40">
@@ -9491,7 +9527,7 @@
         <v>1</v>
       </c>
       <c r="AN71">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="72" spans="1:40">
@@ -9613,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="AN72">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="73" spans="1:40">
@@ -9735,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="AN73">
-        <v>0.8461538461999998</v>
+        <v>0.833333333383333</v>
       </c>
     </row>
     <row r="74" spans="1:40">
@@ -9857,7 +9893,7 @@
         <v>1</v>
       </c>
       <c r="AN74">
-        <v>0.6923076923538459</v>
+        <v>0.7500000000499997</v>
       </c>
     </row>
     <row r="75" spans="1:40">
@@ -9979,7 +10015,7 @@
         <v>1</v>
       </c>
       <c r="AN75">
-        <v>0.6923076923538459</v>
+        <v>0.7500000000499997</v>
       </c>
     </row>
     <row r="76" spans="1:40">
@@ -10101,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="AN76">
-        <v>0.6923076923538459</v>
+        <v>0.7500000000499997</v>
       </c>
     </row>
     <row r="77" spans="1:40">
@@ -10223,7 +10259,7 @@
         <v>1</v>
       </c>
       <c r="AN77">
-        <v>0.6923076923538459</v>
+        <v>0.7500000000499997</v>
       </c>
     </row>
     <row r="78" spans="1:40">
@@ -10345,7 +10381,7 @@
         <v>1</v>
       </c>
       <c r="AN78">
-        <v>0.6923076923538459</v>
+        <v>0.7500000000499997</v>
       </c>
     </row>
     <row r="79" spans="1:40">
@@ -10467,7 +10503,7 @@
         <v>1</v>
       </c>
       <c r="AN79">
-        <v>0.6923076923538459</v>
+        <v>0.7500000000499997</v>
       </c>
     </row>
     <row r="80" spans="1:40">
@@ -10589,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="AN80">
-        <v>0.6923076923538459</v>
+        <v>0.7500000000499997</v>
       </c>
     </row>
     <row r="81" spans="1:40">
@@ -10711,7 +10747,7 @@
         <v>1</v>
       </c>
       <c r="AN81">
-        <v>0.6923076923538459</v>
+        <v>0.7500000000499997</v>
       </c>
     </row>
     <row r="82" spans="1:40">
@@ -10833,7 +10869,7 @@
         <v>1</v>
       </c>
       <c r="AN82">
-        <v>0.6923076923538459</v>
+        <v>0.7500000000499997</v>
       </c>
     </row>
     <row r="83" spans="1:40">
@@ -10955,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="AN83">
-        <v>0.6923076923538459</v>
+        <v>0.7500000000499997</v>
       </c>
     </row>
     <row r="84" spans="1:40">
@@ -11077,7 +11113,7 @@
         <v>1</v>
       </c>
       <c r="AN84">
-        <v>0.6923076923538459</v>
+        <v>0.7500000000499997</v>
       </c>
     </row>
     <row r="85" spans="1:40">
@@ -11199,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="AN85">
-        <v>0.6923076923538459</v>
+        <v>0.7500000000499997</v>
       </c>
     </row>
     <row r="86" spans="1:40">
@@ -11321,7 +11357,7 @@
         <v>1</v>
       </c>
       <c r="AN86">
-        <v>0.6923076923538459</v>
+        <v>0.7500000000499997</v>
       </c>
     </row>
     <row r="87" spans="1:40">
@@ -11443,7 +11479,7 @@
         <v>1</v>
       </c>
       <c r="AN87">
-        <v>0.6923076923538459</v>
+        <v>0.7500000000499997</v>
       </c>
     </row>
     <row r="88" spans="1:40">
@@ -11565,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="AN88">
-        <v>0.6153846154307694</v>
+        <v>0.6666666667166669</v>
       </c>
     </row>
     <row r="89" spans="1:40">
@@ -11687,7 +11723,7 @@
         <v>1</v>
       </c>
       <c r="AN89">
-        <v>0.6153846154307694</v>
+        <v>0.6666666667166669</v>
       </c>
     </row>
     <row r="90" spans="1:40">
@@ -11809,7 +11845,7 @@
         <v>1</v>
       </c>
       <c r="AN90">
-        <v>0.6153846154307694</v>
+        <v>0.6666666667166669</v>
       </c>
     </row>
     <row r="91" spans="1:40">
@@ -11931,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="AN91">
-        <v>0.6153846154307694</v>
+        <v>0.6666666667166669</v>
       </c>
     </row>
     <row r="92" spans="1:40">
@@ -12053,7 +12089,7 @@
         <v>1</v>
       </c>
       <c r="AN92">
-        <v>0.6153846154307694</v>
+        <v>0.6666666667166669</v>
       </c>
     </row>
     <row r="93" spans="1:40">
@@ -12175,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="AN93">
-        <v>0.512820512869231</v>
+        <v>0.5555555556083336</v>
       </c>
     </row>
     <row r="94" spans="1:40">
@@ -12297,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="AN94">
-        <v>0.512820512869231</v>
+        <v>0.5555555556083336</v>
       </c>
     </row>
     <row r="95" spans="1:40">
@@ -12419,7 +12455,7 @@
         <v>1</v>
       </c>
       <c r="AN95">
-        <v>0.512820512869231</v>
+        <v>0.5555555556083336</v>
       </c>
     </row>
     <row r="96" spans="1:40">
@@ -12541,7 +12577,7 @@
         <v>1</v>
       </c>
       <c r="AN96">
-        <v>0.512820512869231</v>
+        <v>0.5555555556083336</v>
       </c>
     </row>
     <row r="97" spans="1:40">
@@ -12663,7 +12699,7 @@
         <v>1</v>
       </c>
       <c r="AN97">
-        <v>0.512820512869231</v>
+        <v>0.5555555556083336</v>
       </c>
     </row>
     <row r="98" spans="1:40">
@@ -12785,7 +12821,7 @@
         <v>1</v>
       </c>
       <c r="AN98">
-        <v>0.512820512869231</v>
+        <v>0.5555555556083336</v>
       </c>
     </row>
     <row r="99" spans="1:40">
@@ -12907,7 +12943,7 @@
         <v>1</v>
       </c>
       <c r="AN99">
-        <v>0.512820512869231</v>
+        <v>0.5555555556083336</v>
       </c>
     </row>
     <row r="100" spans="1:40">
@@ -13029,7 +13065,7 @@
         <v>1</v>
       </c>
       <c r="AN100">
-        <v>0.512820512869231</v>
+        <v>0.5555555556083336</v>
       </c>
     </row>
     <row r="101" spans="1:40">
@@ -13151,7 +13187,7 @@
         <v>1</v>
       </c>
       <c r="AN101">
-        <v>0.512820512869231</v>
+        <v>0.5555555556083336</v>
       </c>
     </row>
     <row r="102" spans="1:40">
@@ -13273,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="AN102">
-        <v>0.3846153846538462</v>
+        <v>0.4166666667083334</v>
       </c>
     </row>
     <row r="103" spans="1:40">
@@ -13395,7 +13431,7 @@
         <v>1</v>
       </c>
       <c r="AN103">
-        <v>0.3846153846538462</v>
+        <v>0.4166666667083334</v>
       </c>
     </row>
     <row r="104" spans="1:40">
@@ -13517,7 +13553,7 @@
         <v>1</v>
       </c>
       <c r="AN104">
-        <v>0.3846153846538462</v>
+        <v>0.4166666667083334</v>
       </c>
     </row>
     <row r="105" spans="1:40">
@@ -13639,7 +13675,7 @@
         <v>1</v>
       </c>
       <c r="AN105">
-        <v>0.3846153846538462</v>
+        <v>0.4166666667083334</v>
       </c>
     </row>
     <row r="106" spans="1:40">
@@ -13761,7 +13797,7 @@
         <v>1</v>
       </c>
       <c r="AN106">
-        <v>0.3846153846538462</v>
+        <v>0.4166666667083334</v>
       </c>
     </row>
     <row r="107" spans="1:40">
@@ -13883,7 +13919,7 @@
         <v>1</v>
       </c>
       <c r="AN107">
-        <v>0.3846153846538462</v>
+        <v>0.4166666667083334</v>
       </c>
     </row>
     <row r="108" spans="1:40">
@@ -14005,7 +14041,7 @@
         <v>1</v>
       </c>
       <c r="AN108">
-        <v>0.3846153846538462</v>
+        <v>0.4166666667083334</v>
       </c>
     </row>
     <row r="109" spans="1:40">
@@ -14127,7 +14163,7 @@
         <v>1</v>
       </c>
       <c r="AN109">
-        <v>0.3846153846538462</v>
+        <v>0.4166666667083334</v>
       </c>
     </row>
     <row r="110" spans="1:40">
@@ -14249,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="AN110">
-        <v>0.3846153846538462</v>
+        <v>0.4166666667083334</v>
       </c>
     </row>
     <row r="111" spans="1:40">
@@ -14371,7 +14407,7 @@
         <v>1</v>
       </c>
       <c r="AN111">
-        <v>0.3846153846538462</v>
+        <v>0.4166666667083334</v>
       </c>
     </row>
     <row r="112" spans="1:40">
@@ -14493,7 +14529,7 @@
         <v>1</v>
       </c>
       <c r="AN112">
-        <v>0.3846153846538462</v>
+        <v>0.4166666667083334</v>
       </c>
     </row>
     <row r="113" spans="1:40">
@@ -14615,7 +14651,7 @@
         <v>1</v>
       </c>
       <c r="AN113">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="114" spans="1:40">
@@ -14737,7 +14773,7 @@
         <v>1</v>
       </c>
       <c r="AN114">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="115" spans="1:40">
@@ -14859,7 +14895,7 @@
         <v>1</v>
       </c>
       <c r="AN115">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="116" spans="1:40">
@@ -14981,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="AN116">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="117" spans="1:40">
@@ -15103,7 +15139,7 @@
         <v>1</v>
       </c>
       <c r="AN117">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="118" spans="1:40">
@@ -15225,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="AN118">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="119" spans="1:40">
@@ -15347,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="AN119">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="120" spans="1:40">
@@ -15469,7 +15505,7 @@
         <v>1</v>
       </c>
       <c r="AN120">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="121" spans="1:40">
@@ -15591,7 +15627,7 @@
         <v>1</v>
       </c>
       <c r="AN121">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="122" spans="1:40">
@@ -15713,7 +15749,7 @@
         <v>1</v>
       </c>
       <c r="AN122">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="123" spans="1:40">
@@ -15835,7 +15871,7 @@
         <v>1</v>
       </c>
       <c r="AN123">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="124" spans="1:40">
@@ -15957,7 +15993,7 @@
         <v>1</v>
       </c>
       <c r="AN124">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="125" spans="1:40">
@@ -16079,7 +16115,7 @@
         <v>1</v>
       </c>
       <c r="AN125">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="126" spans="1:40">
@@ -16201,7 +16237,7 @@
         <v>1</v>
       </c>
       <c r="AN126">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="127" spans="1:40">
@@ -16323,7 +16359,7 @@
         <v>1</v>
       </c>
       <c r="AN127">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="128" spans="1:40">
@@ -16445,7 +16481,7 @@
         <v>1</v>
       </c>
       <c r="AN128">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="129" spans="1:40">
@@ -16567,7 +16603,7 @@
         <v>1</v>
       </c>
       <c r="AN129">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="130" spans="1:40">
@@ -16689,7 +16725,7 @@
         <v>1</v>
       </c>
       <c r="AN130">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="131" spans="1:40">
@@ -16811,7 +16847,7 @@
         <v>1</v>
       </c>
       <c r="AN131">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="132" spans="1:40">
@@ -16933,7 +16969,7 @@
         <v>1</v>
       </c>
       <c r="AN132">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="133" spans="1:40">
@@ -17055,7 +17091,7 @@
         <v>1</v>
       </c>
       <c r="AN133">
-        <v>0.2179487179615384</v>
+        <v>0.2361111111249999</v>
       </c>
     </row>
     <row r="134" spans="1:40">
@@ -17177,7 +17213,7 @@
         <v>1</v>
       </c>
       <c r="AN134">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="135" spans="1:40">
@@ -17299,7 +17335,7 @@
         <v>1</v>
       </c>
       <c r="AN135">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="136" spans="1:40">
@@ -17421,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="AN136">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="137" spans="1:40">
@@ -17543,7 +17579,7 @@
         <v>1</v>
       </c>
       <c r="AN137">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="138" spans="1:40">
@@ -17665,7 +17701,7 @@
         <v>1</v>
       </c>
       <c r="AN138">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="139" spans="1:40">
@@ -17787,7 +17823,7 @@
         <v>1</v>
       </c>
       <c r="AN139">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="140" spans="1:40">
@@ -17909,7 +17945,7 @@
         <v>1</v>
       </c>
       <c r="AN140">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="141" spans="1:40">
@@ -18031,7 +18067,7 @@
         <v>1</v>
       </c>
       <c r="AN141">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="142" spans="1:40">
@@ -18153,7 +18189,7 @@
         <v>1</v>
       </c>
       <c r="AN142">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="143" spans="1:40">
@@ -18275,7 +18311,7 @@
         <v>1</v>
       </c>
       <c r="AN143">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="144" spans="1:40">
@@ -18397,7 +18433,7 @@
         <v>1</v>
       </c>
       <c r="AN144">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="145" spans="1:40">
@@ -18519,7 +18555,7 @@
         <v>1</v>
       </c>
       <c r="AN145">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="146" spans="1:40">
@@ -18641,7 +18677,7 @@
         <v>1</v>
       </c>
       <c r="AN146">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="147" spans="1:40">
@@ -18763,7 +18799,7 @@
         <v>1</v>
       </c>
       <c r="AN147">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="148" spans="1:40">
@@ -18885,7 +18921,7 @@
         <v>1</v>
       </c>
       <c r="AN148">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="149" spans="1:40">
@@ -19007,7 +19043,7 @@
         <v>1</v>
       </c>
       <c r="AN149">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="150" spans="1:40">
@@ -19129,7 +19165,7 @@
         <v>1</v>
       </c>
       <c r="AN150">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="151" spans="1:40">
@@ -19251,7 +19287,7 @@
         <v>1</v>
       </c>
       <c r="AN151">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="152" spans="1:40">
@@ -19373,7 +19409,7 @@
         <v>1</v>
       </c>
       <c r="AN152">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="153" spans="1:40">
@@ -19495,7 +19531,7 @@
         <v>1</v>
       </c>
       <c r="AN153">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="154" spans="1:40">
@@ -19617,7 +19653,7 @@
         <v>1</v>
       </c>
       <c r="AN154">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="155" spans="1:40">
@@ -19739,7 +19775,7 @@
         <v>1</v>
       </c>
       <c r="AN155">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="156" spans="1:40">
@@ -19861,7 +19897,7 @@
         <v>1</v>
       </c>
       <c r="AN156">
-        <v>0.1666666666692307</v>
+        <v>0.1805555555583333</v>
       </c>
     </row>
     <row r="157" spans="1:40">
@@ -19983,7 +20019,7 @@
         <v>1</v>
       </c>
       <c r="AN157">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="158" spans="1:40">
@@ -20105,7 +20141,7 @@
         <v>1</v>
       </c>
       <c r="AN158">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="159" spans="1:40">
@@ -20227,7 +20263,7 @@
         <v>1</v>
       </c>
       <c r="AN159">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="160" spans="1:40">
@@ -20349,7 +20385,7 @@
         <v>1</v>
       </c>
       <c r="AN160">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="161" spans="1:40">
@@ -20471,7 +20507,7 @@
         <v>1</v>
       </c>
       <c r="AN161">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="162" spans="1:40">
@@ -20593,7 +20629,7 @@
         <v>1</v>
       </c>
       <c r="AN162">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="163" spans="1:40">
@@ -20715,7 +20751,7 @@
         <v>1</v>
       </c>
       <c r="AN163">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="164" spans="1:40">
@@ -20837,7 +20873,7 @@
         <v>1</v>
       </c>
       <c r="AN164">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="165" spans="1:40">
@@ -20959,7 +20995,7 @@
         <v>1</v>
       </c>
       <c r="AN165">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="166" spans="1:40">
@@ -21081,7 +21117,7 @@
         <v>1</v>
       </c>
       <c r="AN166">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="167" spans="1:40">
@@ -21203,7 +21239,7 @@
         <v>1</v>
       </c>
       <c r="AN167">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="168" spans="1:40">
@@ -21325,7 +21361,7 @@
         <v>1</v>
       </c>
       <c r="AN168">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="169" spans="1:40">
@@ -21447,7 +21483,7 @@
         <v>1</v>
       </c>
       <c r="AN169">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="170" spans="1:40">
@@ -21569,7 +21605,7 @@
         <v>1</v>
       </c>
       <c r="AN170">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="171" spans="1:40">
@@ -21691,7 +21727,7 @@
         <v>1</v>
       </c>
       <c r="AN171">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="172" spans="1:40">
@@ -21813,7 +21849,7 @@
         <v>1</v>
       </c>
       <c r="AN172">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="173" spans="1:40">
@@ -21935,7 +21971,7 @@
         <v>1</v>
       </c>
       <c r="AN173">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="174" spans="1:40">
@@ -22057,7 +22093,7 @@
         <v>1</v>
       </c>
       <c r="AN174">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="175" spans="1:40">
@@ -22179,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AN175">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="176" spans="1:40">
@@ -22301,7 +22337,7 @@
         <v>1</v>
       </c>
       <c r="AN176">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="177" spans="1:40">
@@ -22423,7 +22459,7 @@
         <v>1</v>
       </c>
       <c r="AN177">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="178" spans="1:40">
@@ -22545,7 +22581,7 @@
         <v>1</v>
       </c>
       <c r="AN178">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="179" spans="1:40">
@@ -22667,7 +22703,7 @@
         <v>1</v>
       </c>
       <c r="AN179">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="180" spans="1:40">
@@ -22789,7 +22825,7 @@
         <v>1</v>
       </c>
       <c r="AN180">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="181" spans="1:40">
@@ -22911,7 +22947,7 @@
         <v>1</v>
       </c>
       <c r="AN181">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="182" spans="1:40">
@@ -23033,7 +23069,7 @@
         <v>1</v>
       </c>
       <c r="AN182">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="183" spans="1:40">
@@ -23155,7 +23191,7 @@
         <v>1</v>
       </c>
       <c r="AN183">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="184" spans="1:40">
@@ -23277,7 +23313,7 @@
         <v>1</v>
       </c>
       <c r="AN184">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="185" spans="1:40">
@@ -23399,7 +23435,7 @@
         <v>1</v>
       </c>
       <c r="AN185">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="186" spans="1:40">
@@ -23521,7 +23557,7 @@
         <v>1</v>
       </c>
       <c r="AN186">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="187" spans="1:40">
@@ -23643,7 +23679,7 @@
         <v>1</v>
       </c>
       <c r="AN187">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="188" spans="1:40">
@@ -23765,7 +23801,7 @@
         <v>1</v>
       </c>
       <c r="AN188">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="189" spans="1:40">
@@ -23887,7 +23923,7 @@
         <v>1</v>
       </c>
       <c r="AN189">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="190" spans="1:40">
@@ -24009,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="AN190">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="191" spans="1:40">
@@ -24131,7 +24167,7 @@
         <v>1</v>
       </c>
       <c r="AN191">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="192" spans="1:40">
@@ -24253,7 +24289,7 @@
         <v>1</v>
       </c>
       <c r="AN192">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="193" spans="1:40">
@@ -24375,7 +24411,7 @@
         <v>1</v>
       </c>
       <c r="AN193">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="194" spans="1:40">
@@ -24497,7 +24533,7 @@
         <v>1</v>
       </c>
       <c r="AN194">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="195" spans="1:40">
@@ -24619,7 +24655,7 @@
         <v>1</v>
       </c>
       <c r="AN195">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="196" spans="1:40">
@@ -24741,7 +24777,7 @@
         <v>1</v>
       </c>
       <c r="AN196">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="197" spans="1:40">
@@ -24863,7 +24899,7 @@
         <v>1</v>
       </c>
       <c r="AN197">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="198" spans="1:40">
@@ -24985,7 +25021,7 @@
         <v>1</v>
       </c>
       <c r="AN198">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="199" spans="1:40">
@@ -25107,7 +25143,7 @@
         <v>1</v>
       </c>
       <c r="AN199">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="200" spans="1:40">
@@ -25229,7 +25265,7 @@
         <v>1</v>
       </c>
       <c r="AN200">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="201" spans="1:40">
@@ -25351,7 +25387,7 @@
         <v>1</v>
       </c>
       <c r="AN201">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="202" spans="1:40">
@@ -25473,7 +25509,7 @@
         <v>1</v>
       </c>
       <c r="AN202">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="203" spans="1:40">
@@ -25595,7 +25631,7 @@
         <v>1</v>
       </c>
       <c r="AN203">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="204" spans="1:40">
@@ -25717,7 +25753,7 @@
         <v>1</v>
       </c>
       <c r="AN204">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="205" spans="1:40">
@@ -25839,7 +25875,7 @@
         <v>1</v>
       </c>
       <c r="AN205">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="206" spans="1:40">
@@ -25961,7 +25997,7 @@
         <v>1</v>
       </c>
       <c r="AN206">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="207" spans="1:40">
@@ -26083,7 +26119,7 @@
         <v>1</v>
       </c>
       <c r="AN207">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="208" spans="1:40">
@@ -26205,7 +26241,7 @@
         <v>1</v>
       </c>
       <c r="AN208">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="209" spans="1:40">
@@ -26327,7 +26363,7 @@
         <v>1</v>
       </c>
       <c r="AN209">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="210" spans="1:40">
@@ -26449,7 +26485,7 @@
         <v>1</v>
       </c>
       <c r="AN210">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="211" spans="1:40">
@@ -26571,7 +26607,7 @@
         <v>1</v>
       </c>
       <c r="AN211">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="212" spans="1:40">
@@ -26693,7 +26729,7 @@
         <v>1</v>
       </c>
       <c r="AN212">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="213" spans="1:40">
@@ -26815,7 +26851,7 @@
         <v>1</v>
       </c>
       <c r="AN213">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="214" spans="1:40">
@@ -26937,7 +26973,7 @@
         <v>1</v>
       </c>
       <c r="AN214">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="215" spans="1:40">
@@ -27059,7 +27095,7 @@
         <v>1</v>
       </c>
       <c r="AN215">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="216" spans="1:40">
@@ -27181,7 +27217,7 @@
         <v>1</v>
       </c>
       <c r="AN216">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="217" spans="1:40">
@@ -27303,7 +27339,7 @@
         <v>1</v>
       </c>
       <c r="AN217">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="218" spans="1:40">
@@ -27425,7 +27461,7 @@
         <v>1</v>
       </c>
       <c r="AN218">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="219" spans="1:40">
@@ -27547,7 +27583,7 @@
         <v>1</v>
       </c>
       <c r="AN219">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="220" spans="1:40">
@@ -27669,7 +27705,7 @@
         <v>1</v>
       </c>
       <c r="AN220">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
       </c>
     </row>
     <row r="221" spans="1:40">
@@ -27791,7 +27827,1471 @@
         <v>1</v>
       </c>
       <c r="AN221">
-        <v>0.2435897435923077</v>
+        <v>0.2638888888916667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:40">
+      <c r="A222" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>0</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>1</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+      <c r="AL222">
+        <v>0</v>
+      </c>
+      <c r="AM222">
+        <v>1</v>
+      </c>
+      <c r="AN222">
+        <v>0.2638888888916667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:40">
+      <c r="A223" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>0</v>
+      </c>
+      <c r="AH223">
+        <v>0</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AJ223">
+        <v>1</v>
+      </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
+      <c r="AL223">
+        <v>0</v>
+      </c>
+      <c r="AM223">
+        <v>1</v>
+      </c>
+      <c r="AN223">
+        <v>0.2638888888916667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:40">
+      <c r="A224" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>0</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AJ224">
+        <v>1</v>
+      </c>
+      <c r="AK224">
+        <v>0</v>
+      </c>
+      <c r="AL224">
+        <v>0</v>
+      </c>
+      <c r="AM224">
+        <v>1</v>
+      </c>
+      <c r="AN224">
+        <v>0.2638888888916667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:40">
+      <c r="A225" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
+      <c r="AH225">
+        <v>0</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>1</v>
+      </c>
+      <c r="AK225">
+        <v>0</v>
+      </c>
+      <c r="AL225">
+        <v>0</v>
+      </c>
+      <c r="AM225">
+        <v>1</v>
+      </c>
+      <c r="AN225">
+        <v>0.2638888888916667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:40">
+      <c r="A226" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
+      <c r="AG226">
+        <v>0</v>
+      </c>
+      <c r="AH226">
+        <v>0</v>
+      </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
+      <c r="AJ226">
+        <v>1</v>
+      </c>
+      <c r="AK226">
+        <v>0</v>
+      </c>
+      <c r="AL226">
+        <v>0</v>
+      </c>
+      <c r="AM226">
+        <v>1</v>
+      </c>
+      <c r="AN226">
+        <v>0.2638888888916667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:40">
+      <c r="A227" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
+      <c r="AG227">
+        <v>0</v>
+      </c>
+      <c r="AH227">
+        <v>0</v>
+      </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
+      <c r="AJ227">
+        <v>1</v>
+      </c>
+      <c r="AK227">
+        <v>0</v>
+      </c>
+      <c r="AL227">
+        <v>0</v>
+      </c>
+      <c r="AM227">
+        <v>1</v>
+      </c>
+      <c r="AN227">
+        <v>0.2638888888916667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:40">
+      <c r="A228" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>0</v>
+      </c>
+      <c r="AH228">
+        <v>0</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>1</v>
+      </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
+      <c r="AL228">
+        <v>0</v>
+      </c>
+      <c r="AM228">
+        <v>1</v>
+      </c>
+      <c r="AN228">
+        <v>0.2638888888916667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:40">
+      <c r="A229" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>0</v>
+      </c>
+      <c r="AH229">
+        <v>0</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AJ229">
+        <v>1</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AL229">
+        <v>0</v>
+      </c>
+      <c r="AM229">
+        <v>1</v>
+      </c>
+      <c r="AN229">
+        <v>0.2638888888916667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:40">
+      <c r="A230" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
+      <c r="AH230">
+        <v>0</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>1</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+      <c r="AL230">
+        <v>0</v>
+      </c>
+      <c r="AM230">
+        <v>1</v>
+      </c>
+      <c r="AN230">
+        <v>0.2638888888916667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:40">
+      <c r="A231" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>0</v>
+      </c>
+      <c r="AH231">
+        <v>0</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>1</v>
+      </c>
+      <c r="AK231">
+        <v>0</v>
+      </c>
+      <c r="AL231">
+        <v>0</v>
+      </c>
+      <c r="AM231">
+        <v>1</v>
+      </c>
+      <c r="AN231">
+        <v>0.2638888888916667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:40">
+      <c r="A232" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>0</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>1</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>0</v>
+      </c>
+      <c r="AM232">
+        <v>1</v>
+      </c>
+      <c r="AN232">
+        <v>0.2638888888916667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:40">
+      <c r="A233" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>0</v>
+      </c>
+      <c r="AH233">
+        <v>0</v>
+      </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <v>1</v>
+      </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
+      <c r="AL233">
+        <v>0</v>
+      </c>
+      <c r="AM233">
+        <v>1</v>
+      </c>
+      <c r="AN233">
+        <v>0.2638888888916667</v>
       </c>
     </row>
   </sheetData>
